--- a/biology/Botanique/Liste_de_jardins_botaniques_en_France/Liste_de_jardins_botaniques_en_France.xlsx
+++ b/biology/Botanique/Liste_de_jardins_botaniques_en_France/Liste_de_jardins_botaniques_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,248 +520,2488 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auvergne-Rhône-Alpes
-Ain
-Parc botanique de la Teyssonnière
-Drôme
-Jardin botanique de Nyons
-Haute-Loire
-Jardin botanique de Pébrac
-Haute-Savoie
-Jardin botanique alpin La Jaÿsinia à Samoëns
-Isère
-jardin botanique du col du Lautaret (situé dans les Hautes-Alpes, dépendant de l'université Grenoble Alpes) ;
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ain</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Parc botanique de la Teyssonnière</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Drôme</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Nyons</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Haute-Loire</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jardin botanique de Pébrac
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Haute-Savoie</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jardin botanique alpin La Jaÿsinia à Samoëns</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Isère</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>jardin botanique du col du Lautaret (situé dans les Hautes-Alpes, dépendant de l'université Grenoble Alpes) ;
 jardin Dominique Villars de l'UFR de pharmacie de l'université Grenoble Alpes, à La Tronche ;
 jardin des fontaines pétrifiantes, à La Sône ;
-jardin des plantes, au muséum d'histoire naturelle de Grenoble.
-Puy-de-Dôme
-Jardin botanique de la Charme de la ville de Clermont-Ferrand
+jardin des plantes, au muséum d'histoire naturelle de Grenoble.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Puy-de-Dôme</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jardin botanique de la Charme de la ville de Clermont-Ferrand
 Jardin botanique d'Auvergne, station d'altitude à Charade
-Jardin botanique d'Auvergne, station de plaine et colline à Blanzat
-Rhône
-Jardin botanique de Lyon
-Jardin des plantes de Lyon
-Bourgogne-Franche-Comté
-Côte-d'Or
-Jardin botanique de l'arquebuse de Dijon
-Doubs
-Jardin botanique de Besançon
-Jura
-Jardin botanique de Chevannes
-Saône-et-Loire
-Jardin botanique de Chalon-sur-Saône
-Bretagne
-Côtes-d'Armor
-Finistère
-Conservatoire botanique national de Brest
+Jardin botanique d'Auvergne, station de plaine et colline à Blanzat</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Rhône</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Lyon
+Jardin des plantes de Lyon</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Côte-d'Or</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Jardin botanique de l'arquebuse de Dijon</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Doubs</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Besançon</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Jura</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jardin botanique de Chevannes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Saône-et-Loire</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Chalon-sur-Saône</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Finistère</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Conservatoire botanique national de Brest
 Jardin exotique et botanique de Roscoff
 Parc botanique de Cornouaille
 Jardin Georges Delaselle (Île de Batz)
-Jardin botanique de Trévarez
-Ille-et-Vilaine
-Jardin botanique de Rennes (Parc du Thabor, Bühler)
+Jardin botanique de Trévarez</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Ille-et-Vilaine</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Rennes (Parc du Thabor, Bühler)
 Jardin botanique de Haute-Bretagne près de Fougères (à Le Châtellier)
-Jardins Rocambole à Corps-Nuds
-Morbihan
-Jardin botanique Yves Rocher à La Gacilly
-Centre-Val-de-Loire
-Eure-et-Loir
-Jardin d'horticulture de Chartres
-Jardin médiéval de la collégiale Saint-André de Chartres
-Indre-et-Loire
-Jardin botanique de Tours
-Loir-et-Cher
-Parc botanique du prieuré d'Orchaise
-Loiret
-Parc floral de la Source (Orléans)
-Corse
-Grand-Est
-Ardenne
-Jardin botanique de Sedan
-Aube
-Jardin botanique de Marnay-sur-Seine
-Bas-Rhin
-Jardin botanique du col de Saverne
-Jardin botanique de l'université de Strasbourg
-Haut-Rhin
-Parc zoologique et botanique de Mulhouse
-Marne
-Centre botanique de la presle
-Meurthe-et-Moselle
-L'ensemble Conservatoire et jardins botaniques de Nancy comprend
+Jardins Rocambole à Corps-Nuds</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Morbihan</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Jardin botanique Yves Rocher à La Gacilly</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Centre-Val-de-Loire</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Eure-et-Loir</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Jardin d'horticulture de Chartres
+Jardin médiéval de la collégiale Saint-André de Chartres</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Centre-Val-de-Loire</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Indre-et-Loire</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Tours</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Centre-Val-de-Loire</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Loir-et-Cher</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Parc botanique du prieuré d'Orchaise</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Centre-Val-de-Loire</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Loiret</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Parc floral de la Source (Orléans)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Grand-Est</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Ardenne</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jardin botanique de Sedan
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Grand-Est</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Aube</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Marnay-sur-Seine</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Grand-Est</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Bas-Rhin</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Jardin botanique du col de Saverne
+Jardin botanique de l'université de Strasbourg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Grand-Est</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Haut-Rhin</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Parc zoologique et botanique de Mulhouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Grand-Est</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Marne</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Centre botanique de la presle</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Grand-Est</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Meurthe-et-Moselle</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>L'ensemble Conservatoire et jardins botaniques de Nancy comprend
 le Jardin botanique du Montet Jean-Marie Pelt, Villers-lès-Nancy
-le Jardin d'altitude du Haut Chitelet à Xonrupt-Longemer (Vosges)
-Moselle
-Jardin botanique de Metz
-Vosges
-Jardins de Callunes à Ban-de-Sapt
+le Jardin d'altitude du Haut Chitelet à Xonrupt-Longemer (Vosges)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Grand-Est</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Moselle</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Metz</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Grand-Est</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Vosges</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Jardins de Callunes à Ban-de-Sapt
 Jardin botanique de Gondremer à Autrey près de Rambervillers
 Jardin d'altitude du Haut-Chitelet à Xonrupt-Longemer, près du col de la Schlucht
 Jardins de Céline à Lusse
-Jardins de la Terre à Vittel
-Hauts-de-France
-Nord
-Jardin des plantes de Lille
+Jardins de la Terre à Vittel</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Nord</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Jardin des plantes de Lille
 Jardin botanique de la Faculté de Pharmacie de Lille
 Jardin botanique de Tourcoing
 Conservatoire botanique national de Bailleul
-Jardin écologique de Lille
-Somme
-Jardin des plantes d'Amiens
+Jardin écologique de Lille</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Somme</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Jardin des plantes d'Amiens
 Jardins de Valloires à Argoules
 Jardins de Digeon
 Jardins de Maizicourt
 Jardin public d'Albert
 Parc du château de Rambures
 Parc de Samara
-Jardins de LY à Senarpont
-Île-de-France
-Essonne
-Parc botanique de Launay à Orsay
-Val-d'Oise
-Jardin botanique de Sannois des Plantes Médicinales à Sannois
-Paris
-Jardin botanique de la Ville de Paris composé de:
+Jardins de LY à Senarpont</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Essonne</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Parc botanique de Launay à Orsay</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Val-d'Oise</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Sannois des Plantes Médicinales à Sannois</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Jardin botanique de la Ville de Paris composé de:
 Parc de Bagatelle (Bois de Boulogne)
 Jardin des serres d'Auteuil (Bois de Boulogne)
 Parc floral de Paris (Bois de Vincennes)
 Arboretum de l'école du Breuil (Bois de Vincennes)
 Jardin des plantes
 Jardin botanique de la Faculté de pharmacie de Paris
-Jardin tropical de Paris
-Normandie
-Calvados
-Jardin public de Bayeux
-Jardin des plantes de Caen
-Manche
-Jardin botanique de la Roche Fauconnière à Cherbourg
-Jardin botanique de Vauville
-Seine-Maritime
-Jardin des plantes de Rouen
+Jardin tropical de Paris</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Calvados</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Jardin public de Bayeux
+Jardin des plantes de Caen</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Manche</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Jardin botanique de la Roche Fauconnière à Cherbourg
+Jardin botanique de Vauville</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Seine-Maritime</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Jardin des plantes de Rouen
 Jardins suspendus (Le Havre)
-Le Jardin Jungle Karlostachys à Eu
-Nouvelle-Aquitaine
-Charente
-Jardin monastique de Tusson
-Charente-Maritime
-Planet Exotica
-Jardin des plantes de La Rochelle
-Dordogne
-Jardin botanique Alaije à Brantôme en Périgord
-Gironde
-Jardin botanique de Bordeaux
+Le Jardin Jungle Karlostachys à Eu</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Charente</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Jardin monastique de Tusson</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Charente-Maritime</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Planet Exotica
+Jardin des plantes de La Rochelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Dordogne</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Jardin botanique Alaije à Brantôme en Périgord</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Bordeaux
 Jardin botanique de Talence
-Jardin botanique du Château de Mongenan
-Haute-Vienne
-Jardins de l'Évêché de Limoges
-Landes
-Les Jardins de l'humanité, jardin botanique à Saint-Vincent-de-Tyrosse
-Pyrénées-Atlantiques
-Jardin botanique de Bayonne
+Jardin botanique du Château de Mongenan</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Haute-Vienne</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Jardins de l'Évêché de Limoges</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Landes</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Les Jardins de l'humanité, jardin botanique à Saint-Vincent-de-Tyrosse</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Pyrénées-Atlantiques</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Bayonne
 Jardin botanique de Billère
 Jardin botanique des Pyrénées occidentales à Saint-Jammes
-Jardin botanique littoral Paul-Jovet à Saint-Jean-de-Luz
-Vienne
-Jardin botanique universitaire de Poitiers, domaine du Deffend
-Jardin des plantes de Poitiers
-Occitanie
-Aude
-Jardin botanique de Foncaude à Feuilla
-Jardin aux Plantes parfumées la Bouichère à Limoux
-Gard
-Titus le jardin des Nymphaeas à Concoules
-Haute-Garonne
-Jardin botanique Henri-Gaussen à Toulouse
-Jardin botanique pyrénéen de Melles
-Hautes-Pyrénées
-Jardin botanique du Tourmalet à Barèges
-Jardin botanique du musée pyrénéen de Lourdes
-Hérault
-Jardin des plantes de Montpellier
-Pyrénées-Orientales
-Jardin méditerranéen du Mas de la Serre, Banyuls-sur-Mer
-Tarn
-Jardin des Martels à Giroussens
-Pays de la Loire
-Loire-Atlantique
-Jardin des plantes de Nantes
+Jardin botanique littoral Paul-Jovet à Saint-Jean-de-Luz</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Vienne</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Jardin botanique universitaire de Poitiers, domaine du Deffend
+Jardin des plantes de Poitiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Aude</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Foncaude à Feuilla
+Jardin aux Plantes parfumées la Bouichère à Limoux</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Gard</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Titus le jardin des Nymphaeas à Concoules</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Haute-Garonne</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Jardin botanique Henri-Gaussen à Toulouse
+Jardin botanique pyrénéen de Melles</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Hautes-Pyrénées</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Jardin botanique du Tourmalet à Barèges
+Jardin botanique du musée pyrénéen de Lourdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hérault</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Jardin des plantes de Montpellier</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pyrénées-Orientales</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Jardin méditerranéen du Mas de la Serre, Banyuls-sur-Mer</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Tarn</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Jardin des Martels à Giroussens</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Loire-Atlantique</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Jardin des plantes de Nantes
 Parc du Grand-Blottereau, à Nantes
-Jardin des Plantes du littoral de Saint Nazaire
-Maine-et-Loire
-Jardin botanique de la faculté de pharmacie d'Angers
+Jardin des Plantes du littoral de Saint Nazaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Maine-et-Loire</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Jardin botanique de la faculté de pharmacie d'Angers
 Jardin des plantes d'Angers
 Arboretum Gaston-Allard
 Jardin botanique de la chevalerie de Sacé à Brain-sur-Allonnes
-Jardin des plantes médicinales et aromatiques Camifolia à Chemillé-Melay
-Provence-Alpes-Côte d'Azur
-Hautes-Alpes
-Conservatoire botanique national de Gap-Charance
-Jardin botanique alpin du col du Lautaret
-Alpes-Maritimes
-Jardin botanique de la Villa Thuret d'Antibes,
+Jardin des plantes médicinales et aromatiques Camifolia à Chemillé-Melay</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Hautes-Alpes</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Conservatoire botanique national de Gap-Charance
+Jardin botanique alpin du col du Lautaret</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Alpes-Maritimes</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Jardin botanique de la Villa Thuret d'Antibes,
 Jardin exotique d'Èze,
 Jardin botanique du Val Rahmeh à Menton,
 Jardin botanique de la ville de Nice,
 Parc Phœnix à Nice,
-Les Cèdres à Saint-Jean-Cap-Ferrat.
-Var
-Conservatoire botanique national de Porquerolles
+Les Cèdres à Saint-Jean-Cap-Ferrat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Var</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Conservatoire botanique national de Porquerolles
 Domaine du Rayol
 Jardin du Las (jardin des plantes de Toulon)
 Jardin zoologique tropical à La Londe-les-Maures
 Le Plantier de Costebelle  à Hyères
 Parc du Moulin Blanc à Saint-Zacharie
-Jardin du réal jardin botanique à Puget-Ville
-Bouches-du-Rhône
-Jardin botanique de Marseille
-Départements et régions d'outre-mer
-La Réunion
-Jardin d'Éden à L'Hermitage-les-Bains
+Jardin du réal jardin botanique à Puget-Ville</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Bouches-du-Rhône</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Marseille</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Départements et régions d'outre-mer</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>La Réunion</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Jardin d'Éden à L'Hermitage-les-Bains
 Jardin de l'État à Saint-Denis
 Jardin des parfums et des épices à Saint-Philippe
 Jardins du Capricorne à La Plaine-des-Palmistes
 Mascarin jardin botanique de La Réunion (Conservatoire botanique national de Mascarin) à Saint-Leu
-Domaine du Café Grillé à Pierrefonds
-Guadeloupe
-Jardin botanique de Basse-Terre.
-Jardin botanique de Deshaies
-Guyane
-Jardin Bois de Rose
+Domaine du Café Grillé à Pierrefonds</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Départements et régions d'outre-mer</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Guadeloupe</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Basse-Terre.
+Jardin botanique de Deshaies</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Départements et régions d'outre-mer</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Guyane</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Jardin Bois de Rose
 Jardin botanique de Cayenne
-Jardin botanique de Guyane
-Martinique
-Jardin botanique de Balata
-Collectivités d'outre-mer
-Polynésie française
-Jardin botanique Harrison-Smith (Tahiti)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_de_jardins_botaniques_en_France</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Jardin botanique de Guyane</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Départements et régions d'outre-mer</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Martinique</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Balata</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Liste des jardins par département</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Collectivités d'outre-mer</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Polynésie française</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Jardin botanique Harrison-Smith (Tahiti)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jardins_botaniques_en_France</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>Association</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association Jardins botaniques de France et des pays francophones a établi une charte à destination des Jardins botaniques qui souhaitent obtenir le label « Jardin botanique de France ». Celle-ci édite le Guide des Jardins Botaniques de France et des Pays Francophones.
 </t>
